--- a/Addons/LCD 3.3V/LCD_PickAndPlace.xlsx
+++ b/Addons/LCD 3.3V/LCD_PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-12" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-30" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="75">
   <si>
     <t>Designator</t>
   </si>
@@ -203,6 +203,39 @@
   </si>
   <si>
     <t>-16.34mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>15.045mm</t>
+  </si>
+  <si>
+    <t>-10.565mm</t>
+  </si>
+  <si>
+    <t>14.045mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>19.49mm</t>
+  </si>
+  <si>
+    <t>-10.512mm</t>
+  </si>
+  <si>
+    <t>18.49mm</t>
   </si>
 </sst>
 </file>
@@ -579,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1160,6 +1193,94 @@
         <v>58</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
